--- a/input/example_simulation.xlsx
+++ b/input/example_simulation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\devon_rtt_model\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RWorkspace\devon_rtt_model\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2D5539-AB17-44A9-A6E4-5406E7E1CB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E8CD06-04B6-41B7-B746-8F7F60B43F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6093BC32-DD3A-4353-8C95-05D1036146DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6093BC32-DD3A-4353-8C95-05D1036146DA}"/>
   </bookViews>
   <sheets>
     <sheet name="param" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="120">
   <si>
     <t>variable</t>
   </si>
@@ -562,21 +562,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -901,13 +900,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -923,7 +922,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -931,7 +930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -939,7 +938,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -947,7 +946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -955,7 +954,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -963,7 +962,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -971,7 +970,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -979,7 +978,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -987,7 +986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -995,7 +994,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -1003,7 +1002,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -1011,7 +1010,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1027,7 +1026,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -1042,20 +1041,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60BA980-8DC7-4F3D-9A54-327CB0DBAFAD}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
@@ -1077,7 +1076,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>89</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>90</v>
       </c>
@@ -1110,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>91</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>92</v>
       </c>
@@ -1132,7 +1131,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>91</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>92</v>
       </c>
@@ -1154,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>93</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>94</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>95</v>
       </c>
@@ -1187,7 +1186,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>96</v>
       </c>
@@ -1198,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>97</v>
       </c>
@@ -1209,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>98</v>
       </c>
@@ -1220,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>99</v>
       </c>
@@ -1231,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>100</v>
       </c>
@@ -1242,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>101</v>
       </c>
@@ -1253,7 +1252,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>102</v>
       </c>
@@ -1264,7 +1263,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>103</v>
       </c>
@@ -1275,7 +1274,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>104</v>
       </c>
@@ -1286,7 +1285,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>105</v>
       </c>
@@ -1297,7 +1296,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>107</v>
       </c>
@@ -1308,7 +1307,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>108</v>
       </c>
@@ -1319,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>106</v>
       </c>
@@ -1330,7 +1329,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>109</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>110</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>67</v>
       </c>
@@ -1363,7 +1362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>68</v>
       </c>
@@ -1374,7 +1373,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>67</v>
       </c>
@@ -1385,7 +1384,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>68</v>
       </c>
@@ -1396,7 +1395,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
@@ -1418,7 +1417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
@@ -1429,7 +1428,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
@@ -1440,7 +1439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>63</v>
       </c>
@@ -1451,7 +1450,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>64</v>
       </c>
@@ -1462,7 +1461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>61</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>61</v>
       </c>
@@ -1495,7 +1494,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>62</v>
       </c>
@@ -1506,42 +1505,42 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="11">
-        <v>1</v>
-      </c>
-      <c r="C42" s="12">
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="8">
+        <v>53</v>
+      </c>
+      <c r="C43" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="11">
-        <v>1</v>
-      </c>
-      <c r="C43" s="12">
+      <c r="B44" s="11">
+        <v>1</v>
+      </c>
+      <c r="C44" s="12">
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="B44" s="11">
-        <v>1</v>
-      </c>
-      <c r="C44" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="B45" s="11">
         <v>1</v>
@@ -1550,25 +1549,36 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="11">
+        <v>1</v>
+      </c>
+      <c r="C46" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="11">
-        <v>1</v>
-      </c>
-      <c r="C46" s="12">
+      <c r="B47" s="11">
+        <v>1</v>
+      </c>
+      <c r="C47" s="12">
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="11">
-        <v>1</v>
-      </c>
-      <c r="C47" s="12">
+      <c r="B48" s="11">
+        <v>1</v>
+      </c>
+      <c r="C48" s="12">
         <v>0.04</v>
       </c>
     </row>
@@ -1584,15 +1594,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="55" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="55" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1759,2007 +1769,2007 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>0</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>434</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>258</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>172</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>120</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>120</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>107</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <v>123</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>93</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>92</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <v>84</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <v>76</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="13">
         <v>52</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="13">
         <v>48</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="13">
         <v>72</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="Q2" s="13">
         <v>72</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="13">
         <v>51</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="13">
         <v>66</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="13">
         <v>50</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="13">
         <v>36</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="13">
         <v>41</v>
       </c>
-      <c r="W2" s="14">
+      <c r="W2" s="13">
         <v>45</v>
       </c>
-      <c r="X2" s="14">
+      <c r="X2" s="13">
         <v>39</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="13">
         <v>47</v>
       </c>
-      <c r="Z2" s="14">
+      <c r="Z2" s="13">
         <v>42</v>
       </c>
-      <c r="AA2" s="14">
+      <c r="AA2" s="13">
         <v>44</v>
       </c>
-      <c r="AB2" s="14">
+      <c r="AB2" s="13">
         <v>48</v>
       </c>
-      <c r="AC2" s="14">
+      <c r="AC2" s="13">
         <v>35</v>
       </c>
-      <c r="AD2" s="14">
+      <c r="AD2" s="13">
         <v>27</v>
       </c>
-      <c r="AE2" s="14">
+      <c r="AE2" s="13">
         <v>38</v>
       </c>
-      <c r="AF2" s="14">
+      <c r="AF2" s="13">
         <v>24</v>
       </c>
-      <c r="AG2" s="14">
+      <c r="AG2" s="13">
         <v>27</v>
       </c>
-      <c r="AH2" s="14">
+      <c r="AH2" s="13">
         <v>26</v>
       </c>
-      <c r="AI2" s="14">
+      <c r="AI2" s="13">
         <v>40</v>
       </c>
-      <c r="AJ2" s="14">
+      <c r="AJ2" s="13">
         <v>39</v>
       </c>
-      <c r="AK2" s="14">
+      <c r="AK2" s="13">
         <v>31</v>
       </c>
-      <c r="AL2" s="14">
+      <c r="AL2" s="13">
         <v>23</v>
       </c>
-      <c r="AM2" s="14">
+      <c r="AM2" s="13">
         <v>25</v>
       </c>
-      <c r="AN2" s="14">
+      <c r="AN2" s="13">
         <v>25</v>
       </c>
-      <c r="AO2" s="14">
+      <c r="AO2" s="13">
         <v>20</v>
       </c>
-      <c r="AP2" s="14">
+      <c r="AP2" s="13">
         <v>27</v>
       </c>
-      <c r="AQ2" s="14">
+      <c r="AQ2" s="13">
         <v>16</v>
       </c>
-      <c r="AR2" s="14">
+      <c r="AR2" s="13">
         <v>21</v>
       </c>
-      <c r="AS2" s="14">
+      <c r="AS2" s="13">
         <v>16</v>
       </c>
-      <c r="AT2" s="14">
+      <c r="AT2" s="13">
         <v>19</v>
       </c>
-      <c r="AU2" s="14">
+      <c r="AU2" s="13">
         <v>16</v>
       </c>
-      <c r="AV2" s="14">
+      <c r="AV2" s="13">
         <v>16</v>
       </c>
-      <c r="AW2" s="14">
+      <c r="AW2" s="13">
         <v>8</v>
       </c>
-      <c r="AX2" s="14">
+      <c r="AX2" s="13">
         <v>13</v>
       </c>
-      <c r="AY2" s="14">
+      <c r="AY2" s="13">
         <v>13</v>
       </c>
-      <c r="AZ2" s="14">
+      <c r="AZ2" s="13">
         <v>4</v>
       </c>
-      <c r="BA2" s="14">
+      <c r="BA2" s="13">
         <v>7</v>
       </c>
-      <c r="BB2" s="14">
+      <c r="BB2" s="13">
         <v>8</v>
       </c>
-      <c r="BC2" s="15">
+      <c r="BC2" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>0</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>754</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>356</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>270</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>251</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>204</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>165</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <v>161</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>152</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>154</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <v>121</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="13">
         <v>142</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="13">
         <v>118</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="13">
         <v>94</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="13">
         <v>124</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="13">
         <v>112</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="13">
         <v>102</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="13">
         <v>97</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="13">
         <v>67</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="13">
         <v>86</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="13">
         <v>87</v>
       </c>
-      <c r="W3" s="14">
+      <c r="W3" s="13">
         <v>65</v>
       </c>
-      <c r="X3" s="14">
+      <c r="X3" s="13">
         <v>62</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Y3" s="13">
         <v>69</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="Z3" s="13">
         <v>76</v>
       </c>
-      <c r="AA3" s="14">
+      <c r="AA3" s="13">
         <v>61</v>
       </c>
-      <c r="AB3" s="14">
+      <c r="AB3" s="13">
         <v>67</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AC3" s="13">
         <v>64</v>
       </c>
-      <c r="AD3" s="14">
+      <c r="AD3" s="13">
         <v>60</v>
       </c>
-      <c r="AE3" s="14">
+      <c r="AE3" s="13">
         <v>69</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AF3" s="13">
         <v>48</v>
       </c>
-      <c r="AG3" s="14">
+      <c r="AG3" s="13">
         <v>53</v>
       </c>
-      <c r="AH3" s="14">
+      <c r="AH3" s="13">
         <v>61</v>
       </c>
-      <c r="AI3" s="14">
+      <c r="AI3" s="13">
         <v>40</v>
       </c>
-      <c r="AJ3" s="14">
+      <c r="AJ3" s="13">
         <v>42</v>
       </c>
-      <c r="AK3" s="14">
+      <c r="AK3" s="13">
         <v>51</v>
       </c>
-      <c r="AL3" s="14">
+      <c r="AL3" s="13">
         <v>47</v>
       </c>
-      <c r="AM3" s="14">
+      <c r="AM3" s="13">
         <v>45</v>
       </c>
-      <c r="AN3" s="14">
+      <c r="AN3" s="13">
         <v>30</v>
       </c>
-      <c r="AO3" s="14">
+      <c r="AO3" s="13">
         <v>37</v>
       </c>
-      <c r="AP3" s="14">
+      <c r="AP3" s="13">
         <v>37</v>
       </c>
-      <c r="AQ3" s="14">
+      <c r="AQ3" s="13">
         <v>19</v>
       </c>
-      <c r="AR3" s="14">
+      <c r="AR3" s="13">
         <v>33</v>
       </c>
-      <c r="AS3" s="14">
+      <c r="AS3" s="13">
         <v>32</v>
       </c>
-      <c r="AT3" s="14">
+      <c r="AT3" s="13">
         <v>33</v>
       </c>
-      <c r="AU3" s="14">
+      <c r="AU3" s="13">
         <v>29</v>
       </c>
-      <c r="AV3" s="14">
+      <c r="AV3" s="13">
         <v>26</v>
       </c>
-      <c r="AW3" s="14">
+      <c r="AW3" s="13">
         <v>14</v>
       </c>
-      <c r="AX3" s="14">
+      <c r="AX3" s="13">
         <v>28</v>
       </c>
-      <c r="AY3" s="14">
+      <c r="AY3" s="13">
         <v>17</v>
       </c>
-      <c r="AZ3" s="14">
+      <c r="AZ3" s="13">
         <v>18</v>
       </c>
-      <c r="BA3" s="14">
+      <c r="BA3" s="13">
         <v>20</v>
       </c>
-      <c r="BB3" s="14">
+      <c r="BB3" s="13">
         <v>12</v>
       </c>
-      <c r="BC3" s="15">
+      <c r="BC3" s="14">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="16">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
         <v>10</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>9</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>8</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>7</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>6</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>5</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>4</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>3</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>2</v>
       </c>
-      <c r="L4" s="16">
-        <v>1</v>
-      </c>
-      <c r="M4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="N4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="O4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="P4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="R4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="T4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="U4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="V4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="W4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="X4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="Z4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AA4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AB4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AC4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AD4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AE4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AF4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AG4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AH4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AI4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AJ4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AK4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AL4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AM4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AN4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AO4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AP4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AQ4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AR4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AS4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AT4" s="16">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="16">
+      <c r="L4" s="15">
+        <v>1</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="T4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="V4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="W4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="X4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AA4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AE4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AF4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AG4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AH4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AI4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AM4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AN4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AO4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AP4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AQ4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AR4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AS4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AT4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="15">
         <v>2</v>
       </c>
-      <c r="AV4" s="16">
+      <c r="AV4" s="15">
         <v>3</v>
       </c>
-      <c r="AW4" s="16">
+      <c r="AW4" s="15">
         <v>4</v>
       </c>
-      <c r="AX4" s="16">
+      <c r="AX4" s="15">
         <v>5</v>
       </c>
-      <c r="AY4" s="16">
+      <c r="AY4" s="15">
         <v>6</v>
       </c>
-      <c r="AZ4" s="16">
+      <c r="AZ4" s="15">
         <v>7</v>
       </c>
-      <c r="BA4" s="16">
+      <c r="BA4" s="15">
         <v>8</v>
       </c>
-      <c r="BB4" s="16">
+      <c r="BB4" s="15">
         <v>9</v>
       </c>
-      <c r="BC4" s="17">
+      <c r="BC4" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>53</v>
       </c>
-      <c r="C5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="J5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="K5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="L5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="M5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="N5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="O5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="P5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="R5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="S5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="T5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="U5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="V5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="W5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="X5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="Y5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="Z5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AA5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AB5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AC5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AD5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AE5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AF5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AG5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AH5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AI5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AJ5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AK5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AL5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AM5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AN5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AO5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AP5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AQ5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AR5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AS5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AT5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AU5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AV5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AW5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AX5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AY5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AZ5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="BA5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="BB5" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="BC5" s="19">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="C5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="P5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="R5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="S5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="T5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="U5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="V5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="W5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="X5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="Y5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="Z5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AA5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AB5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AC5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AD5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AE5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AF5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AG5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AH5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AI5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AJ5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AK5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AL5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AM5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AN5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AO5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AP5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AQ5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AR5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AS5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AT5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AU5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AV5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AW5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AX5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AY5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AZ5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="BA5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="BB5" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="BC5" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="16">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
         <v>10</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>9</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>8</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>7</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>6</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>5</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>4</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>3</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>2</v>
       </c>
-      <c r="L6" s="16">
-        <v>1</v>
-      </c>
-      <c r="M6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="N6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="O6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="P6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="R6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="S6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="T6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="U6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="V6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="W6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="X6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="Y6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="Z6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AA6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AB6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AC6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AD6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AE6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AG6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AH6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AI6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AJ6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AK6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AL6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AM6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AN6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AO6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AP6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AQ6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AR6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AS6" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="AT6" s="16">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="16">
+      <c r="L6" s="15">
+        <v>1</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="S6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="T6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="U6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="V6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="W6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="X6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AA6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AG6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AH6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AI6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AM6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AN6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AP6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AQ6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AR6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AS6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AT6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="15">
         <v>2</v>
       </c>
-      <c r="AV6" s="16">
+      <c r="AV6" s="15">
         <v>3</v>
       </c>
-      <c r="AW6" s="16">
+      <c r="AW6" s="15">
         <v>4</v>
       </c>
-      <c r="AX6" s="16">
+      <c r="AX6" s="15">
         <v>5</v>
       </c>
-      <c r="AY6" s="16">
+      <c r="AY6" s="15">
         <v>6</v>
       </c>
-      <c r="AZ6" s="16">
+      <c r="AZ6" s="15">
         <v>7</v>
       </c>
-      <c r="BA6" s="16">
+      <c r="BA6" s="15">
         <v>8</v>
       </c>
-      <c r="BB6" s="16">
+      <c r="BB6" s="15">
         <v>9</v>
       </c>
-      <c r="BC6" s="17">
+      <c r="BC6" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>53</v>
       </c>
-      <c r="C7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="K7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="L7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="M7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="N7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="O7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="P7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="R7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="S7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="T7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="U7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="V7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="W7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="X7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="Y7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="Z7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AA7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AB7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AC7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AD7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AE7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AF7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AG7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AH7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AI7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AJ7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AK7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AL7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AM7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AN7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AO7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AP7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AQ7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AR7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AS7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AT7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AU7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AV7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AW7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AX7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AY7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="AZ7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="BA7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="BB7" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="BC7" s="19">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="C7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="L7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="N7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="O7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="P7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="R7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="S7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="T7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="U7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="V7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="W7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="X7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="Y7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AA7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AB7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AC7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AD7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AG7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AH7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AI7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AJ7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AK7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AL7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AM7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AN7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AO7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AP7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AQ7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AR7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AS7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AT7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AU7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AV7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AW7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AX7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AY7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="AZ7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="BA7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="BB7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="BC7" s="18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="14">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
         <v>10</v>
       </c>
-      <c r="D8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="K8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="M8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="P8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="R8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="S8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="T8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="U8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="V8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="W8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="X8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Y8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Z8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AA8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AC8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AD8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AE8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AF8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AG8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AH8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AI8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AJ8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AK8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AL8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AM8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AN8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AO8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AP8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AQ8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AR8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AS8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AT8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AU8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AV8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AW8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AX8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AY8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AZ8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="BA8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="BB8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="BC8" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="D8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="T8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="W8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="X8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AH8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AI8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AJ8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AL8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AM8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AN8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AO8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AP8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AQ8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AR8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AS8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AT8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AU8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AV8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AW8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AX8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AY8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AZ8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BA8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BB8" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BC8" s="14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="14">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
         <v>10</v>
       </c>
-      <c r="D9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="J9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="L9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="P9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="R9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="S9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="T9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="U9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="V9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="W9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="X9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Y9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Z9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AA9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AB9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AC9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AD9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AE9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AF9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AG9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AH9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AI9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AJ9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AK9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AL9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AM9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AN9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AO9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AP9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AQ9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AR9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AS9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AT9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AU9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AV9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AW9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AX9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AY9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AZ9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="BA9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="BB9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="BC9" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="D9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="S9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="T9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="U9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="V9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="W9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="X9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AG9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AH9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AI9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AJ9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AL9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AM9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AN9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AO9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AP9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AQ9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AR9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AS9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AT9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AU9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AV9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AW9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AX9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AY9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AZ9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BA9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BB9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BC9" s="14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="14">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
         <v>10</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>10</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>10</v>
       </c>
-      <c r="F10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="K10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="O10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="P10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="R10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="S10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="T10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="U10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="V10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="W10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="X10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Y10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Z10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AA10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AB10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AC10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AD10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AE10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AF10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AG10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AH10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AI10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AJ10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AK10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AL10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AM10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AN10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AO10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AP10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AQ10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AR10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AS10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AT10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AU10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AV10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AW10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AX10" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AY10" s="14">
+      <c r="F10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="S10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="T10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="U10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="V10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="W10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="X10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AF10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AG10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AH10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AI10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AJ10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AL10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AM10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AN10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AO10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AP10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AQ10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AR10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AS10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AT10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AU10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AV10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AW10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AX10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AY10" s="13">
         <v>10</v>
       </c>
-      <c r="AZ10" s="14">
+      <c r="AZ10" s="13">
         <v>10</v>
       </c>
-      <c r="BA10" s="14">
+      <c r="BA10" s="13">
         <v>10</v>
       </c>
-      <c r="BB10" s="14">
+      <c r="BB10" s="13">
         <v>10</v>
       </c>
-      <c r="BC10" s="15">
+      <c r="BC10" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="14">
-        <v>1</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
         <v>10</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>10</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>10</v>
       </c>
-      <c r="F11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="M11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="O11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="P11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="R11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="S11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="T11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="U11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="V11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="W11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="X11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Y11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Z11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AA11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AB11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AC11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AD11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AE11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AF11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AG11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AH11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AI11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AJ11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AK11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AL11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AM11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AN11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AO11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AP11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AQ11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AR11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AS11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AT11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AU11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AV11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AW11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AX11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AY11" s="14">
+      <c r="F11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="S11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="T11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="U11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="V11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="W11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="X11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AF11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AG11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AH11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AI11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AJ11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AL11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AM11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AN11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AO11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AP11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AQ11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AR11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AS11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AT11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AU11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AV11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AW11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AX11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AY11" s="13">
         <v>10</v>
       </c>
-      <c r="AZ11" s="14">
+      <c r="AZ11" s="13">
         <v>10</v>
       </c>
-      <c r="BA11" s="14">
+      <c r="BA11" s="13">
         <v>10</v>
       </c>
-      <c r="BB11" s="14">
+      <c r="BB11" s="13">
         <v>10</v>
       </c>
-      <c r="BC11" s="15">
+      <c r="BC11" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="14">
-        <v>1</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>9</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>8</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>7</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>6</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>5</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>4</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>3</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <v>2</v>
       </c>
-      <c r="L12" s="14">
-        <v>1</v>
-      </c>
-      <c r="M12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="N12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="O12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="P12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="R12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="S12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="T12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="U12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="V12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="W12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="X12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Y12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Z12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AA12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AB12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AC12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AD12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AE12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AF12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AG12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AH12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AI12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AJ12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AK12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AL12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AM12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AN12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AO12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AP12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AQ12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AR12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AS12" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AT12" s="14">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="14">
+      <c r="L12" s="13">
+        <v>1</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="S12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="T12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="U12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="V12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="W12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="X12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="13">
         <v>2</v>
       </c>
-      <c r="AV12" s="14">
+      <c r="AV12" s="13">
         <v>3</v>
       </c>
-      <c r="AW12" s="14">
+      <c r="AW12" s="13">
         <v>4</v>
       </c>
-      <c r="AX12" s="14">
+      <c r="AX12" s="13">
         <v>5</v>
       </c>
-      <c r="AY12" s="14">
+      <c r="AY12" s="13">
         <v>6</v>
       </c>
-      <c r="AZ12" s="14">
+      <c r="AZ12" s="13">
         <v>7</v>
       </c>
-      <c r="BA12" s="14">
+      <c r="BA12" s="13">
         <v>8</v>
       </c>
-      <c r="BB12" s="14">
+      <c r="BB12" s="13">
         <v>9</v>
       </c>
-      <c r="BC12" s="15">
+      <c r="BC12" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="14">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>9</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>8</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>7</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>6</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>5</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>4</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>3</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <v>2</v>
       </c>
-      <c r="L13" s="14">
-        <v>1</v>
-      </c>
-      <c r="M13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="N13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="O13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="P13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="R13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="S13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="T13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="U13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="V13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="W13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="X13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Y13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Z13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AA13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AB13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AC13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AD13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AE13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AF13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AG13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AH13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AI13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AJ13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AK13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AL13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AM13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AN13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AO13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AP13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AQ13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AR13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AS13" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="AT13" s="14">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="14">
+      <c r="L13" s="13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="S13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="T13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="U13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="V13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="W13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="X13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AG13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AH13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AI13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AJ13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AL13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AM13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AN13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AO13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AP13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AQ13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AR13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AS13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="AT13" s="13">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="13">
         <v>2</v>
       </c>
-      <c r="AV13" s="14">
+      <c r="AV13" s="13">
         <v>3</v>
       </c>
-      <c r="AW13" s="14">
+      <c r="AW13" s="13">
         <v>4</v>
       </c>
-      <c r="AX13" s="14">
+      <c r="AX13" s="13">
         <v>5</v>
       </c>
-      <c r="AY13" s="14">
+      <c r="AY13" s="13">
         <v>6</v>
       </c>
-      <c r="AZ13" s="14">
+      <c r="AZ13" s="13">
         <v>7</v>
       </c>
-      <c r="BA13" s="14">
+      <c r="BA13" s="13">
         <v>8</v>
       </c>
-      <c r="BB13" s="14">
+      <c r="BB13" s="13">
         <v>9</v>
       </c>
-      <c r="BC13" s="15">
+      <c r="BC13" s="14">
         <v>10</v>
       </c>
     </row>

--- a/input/example_simulation.xlsx
+++ b/input/example_simulation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RWorkspace\devon_rtt_model\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\devon_rtt_model\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E8CD06-04B6-41B7-B746-8F7F60B43F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA22626-6379-48EB-8286-BD0B6712C733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6093BC32-DD3A-4353-8C95-05D1036146DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6093BC32-DD3A-4353-8C95-05D1036146DA}"/>
   </bookViews>
   <sheets>
     <sheet name="param" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="121">
   <si>
     <t>variable</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>convprof_adm</t>
+  </si>
+  <si>
+    <t>actual</t>
   </si>
 </sst>
 </file>
@@ -898,15 +901,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436726FC-6DDF-4E3E-AFB0-517953A3603C}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -922,7 +927,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -930,7 +935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -938,7 +943,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -946,7 +951,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -954,7 +959,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -962,7 +967,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -970,15 +975,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -986,7 +991,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -994,7 +999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -1002,7 +1007,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -1010,7 +1015,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -1018,7 +1023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1026,7 +1031,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -1043,18 +1048,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60BA980-8DC7-4F3D-9A54-327CB0DBAFAD}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:C43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
@@ -1076,7 +1081,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
@@ -1087,7 +1092,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>89</v>
       </c>
@@ -1098,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>90</v>
       </c>
@@ -1109,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>91</v>
       </c>
@@ -1120,7 +1125,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>92</v>
       </c>
@@ -1131,7 +1136,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>91</v>
       </c>
@@ -1142,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>92</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>93</v>
       </c>
@@ -1164,7 +1169,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>94</v>
       </c>
@@ -1175,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>95</v>
       </c>
@@ -1186,7 +1191,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>96</v>
       </c>
@@ -1197,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>97</v>
       </c>
@@ -1208,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>98</v>
       </c>
@@ -1219,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>99</v>
       </c>
@@ -1230,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>100</v>
       </c>
@@ -1241,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>101</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>102</v>
       </c>
@@ -1263,7 +1268,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>103</v>
       </c>
@@ -1274,7 +1279,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>104</v>
       </c>
@@ -1285,7 +1290,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>105</v>
       </c>
@@ -1296,7 +1301,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>107</v>
       </c>
@@ -1307,7 +1312,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>108</v>
       </c>
@@ -1318,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>106</v>
       </c>
@@ -1329,7 +1334,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>109</v>
       </c>
@@ -1340,7 +1345,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>110</v>
       </c>
@@ -1351,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>67</v>
       </c>
@@ -1362,7 +1367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>68</v>
       </c>
@@ -1373,7 +1378,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>67</v>
       </c>
@@ -1384,7 +1389,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>68</v>
       </c>
@@ -1395,7 +1400,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -1406,7 +1411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
@@ -1417,7 +1422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
@@ -1428,7 +1433,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
@@ -1439,7 +1444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>63</v>
       </c>
@@ -1450,7 +1455,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>64</v>
       </c>
@@ -1461,7 +1466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>61</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
@@ -1483,7 +1488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>61</v>
       </c>
@@ -1494,7 +1499,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>62</v>
       </c>
@@ -1505,7 +1510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>70</v>
       </c>
@@ -1516,7 +1521,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>70</v>
       </c>
@@ -1527,7 +1532,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>69</v>
       </c>
@@ -1538,7 +1543,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>72</v>
       </c>
@@ -1549,7 +1554,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>71</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>73</v>
       </c>
@@ -1571,7 +1576,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>111</v>
       </c>
@@ -1592,17 +1597,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70316A8C-BA7A-487F-B261-411662C9E7FB}">
   <dimension ref="A1:BC13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="55" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="55" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1769,7 +1774,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
@@ -1936,7 +1941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
@@ -2103,7 +2108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>113</v>
       </c>
@@ -2270,7 +2275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>113</v>
       </c>
@@ -2437,7 +2442,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
@@ -2604,7 +2609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>112</v>
       </c>
@@ -2771,7 +2776,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>114</v>
       </c>
@@ -2779,166 +2784,166 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
+        <v>100</v>
+      </c>
+      <c r="D8" s="13">
+        <v>50</v>
+      </c>
+      <c r="E8" s="13">
+        <v>20</v>
+      </c>
+      <c r="F8" s="13">
         <v>10</v>
       </c>
-      <c r="D8" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0.1</v>
-      </c>
       <c r="G8" s="13">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="H8" s="13">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J8" s="13">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="K8" s="13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L8" s="13">
         <v>0.1</v>
       </c>
       <c r="M8" s="13">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="N8" s="13">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="O8" s="13">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="P8" s="13">
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q8" s="13">
-        <v>0.1</v>
+        <v>2E-3</v>
       </c>
       <c r="R8" s="13">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="S8" s="13">
-        <v>0.1</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="T8" s="13">
-        <v>0.1</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="U8" s="13">
-        <v>0.1</v>
+        <v>1E-4</v>
       </c>
       <c r="V8" s="13">
-        <v>0.1</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="W8" s="13">
-        <v>0.1</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="X8" s="13">
-        <v>0.1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="Y8" s="13">
-        <v>0.1</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="Z8" s="13">
-        <v>0.1</v>
+        <v>2.0000000000000003E-6</v>
       </c>
       <c r="AA8" s="13">
-        <v>0.1</v>
+        <v>1.0000000000000002E-6</v>
       </c>
       <c r="AB8" s="13">
-        <v>0.1</v>
+        <v>5.0000000000000008E-7</v>
       </c>
       <c r="AC8" s="13">
-        <v>0.1</v>
+        <v>2.0000000000000004E-7</v>
       </c>
       <c r="AD8" s="13">
-        <v>0.1</v>
+        <v>1.0000000000000002E-7</v>
       </c>
       <c r="AE8" s="13">
-        <v>0.1</v>
+        <v>5.0000000000000011E-8</v>
       </c>
       <c r="AF8" s="13">
-        <v>0.1</v>
+        <v>2.0000000000000004E-8</v>
       </c>
       <c r="AG8" s="13">
-        <v>0.1</v>
+        <v>1.0000000000000002E-8</v>
       </c>
       <c r="AH8" s="13">
-        <v>0.1</v>
+        <v>5.0000000000000009E-9</v>
       </c>
       <c r="AI8" s="13">
-        <v>0.1</v>
+        <v>2.0000000000000005E-9</v>
       </c>
       <c r="AJ8" s="13">
-        <v>0.1</v>
+        <v>1.0000000000000003E-9</v>
       </c>
       <c r="AK8" s="13">
-        <v>0.1</v>
+        <v>5.0000000000000013E-10</v>
       </c>
       <c r="AL8" s="13">
-        <v>0.1</v>
+        <v>2.0000000000000006E-10</v>
       </c>
       <c r="AM8" s="13">
-        <v>0.1</v>
+        <v>1.0000000000000003E-10</v>
       </c>
       <c r="AN8" s="13">
-        <v>0.1</v>
+        <v>5.0000000000000015E-11</v>
       </c>
       <c r="AO8" s="13">
-        <v>0.1</v>
+        <v>2.0000000000000005E-11</v>
       </c>
       <c r="AP8" s="13">
-        <v>0.1</v>
+        <v>1.0000000000000003E-11</v>
       </c>
       <c r="AQ8" s="13">
-        <v>0.1</v>
+        <v>5.0000000000000013E-12</v>
       </c>
       <c r="AR8" s="13">
-        <v>0.1</v>
+        <v>2.0000000000000004E-12</v>
       </c>
       <c r="AS8" s="13">
-        <v>0.1</v>
+        <v>1.0000000000000002E-12</v>
       </c>
       <c r="AT8" s="13">
-        <v>0.1</v>
+        <v>5.0000000000000009E-13</v>
       </c>
       <c r="AU8" s="13">
-        <v>0.1</v>
+        <v>2.0000000000000003E-13</v>
       </c>
       <c r="AV8" s="13">
-        <v>0.1</v>
+        <v>1.0000000000000002E-13</v>
       </c>
       <c r="AW8" s="13">
-        <v>0.1</v>
+        <v>5.0000000000000008E-14</v>
       </c>
       <c r="AX8" s="13">
-        <v>0.1</v>
+        <v>2.0000000000000003E-14</v>
       </c>
       <c r="AY8" s="13">
-        <v>0.1</v>
+        <v>1.0000000000000002E-14</v>
       </c>
       <c r="AZ8" s="13">
-        <v>0.1</v>
+        <v>5.0000000000000008E-15</v>
       </c>
       <c r="BA8" s="13">
-        <v>0.1</v>
+        <v>2.0000000000000002E-15</v>
       </c>
       <c r="BB8" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="BC8" s="14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="BC8" s="13">
+        <v>5.0000000000000004E-16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>115</v>
       </c>
@@ -3105,7 +3110,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>116</v>
       </c>
@@ -3272,7 +3277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>117</v>
       </c>
@@ -3439,7 +3444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>118</v>
       </c>
@@ -3606,7 +3611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>119</v>
       </c>
